--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="正史類" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>@default</t>
   </si>
@@ -41,6 +41,9 @@
     <t>章</t>
   </si>
   <si>
+    <t>章節名字</t>
+  </si>
+  <si>
     <t>卷</t>
   </si>
   <si>
@@ -62,15 +65,15 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int[]</t>
   </si>
   <si>
     <t>string[]</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>chapter</t>
   </si>
   <si>
+    <t>chapterName</t>
+  </si>
+  <si>
     <t>volume</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>directory</t>
   </si>
   <si>
+    <t>前言</t>
+  </si>
+  <si>
     <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
   </si>
   <si>
@@ -117,6 +126,27 @@
   </si>
   <si>
     <t>進表</t>
+  </si>
+  <si>
+    <t>職名</t>
+  </si>
+  <si>
+    <t>1000180001&amp;1200180001&amp;1200180002</t>
+  </si>
+  <si>
+    <t>集解&amp;索隠&amp;正義</t>
+  </si>
+  <si>
+    <t>史記序</t>
+  </si>
+  <si>
+    <t>史記序考證</t>
+  </si>
+  <si>
+    <t>目録</t>
+  </si>
+  <si>
+    <t>目録考證</t>
   </si>
 </sst>
 </file>
@@ -1067,23 +1097,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.77777777777778" style="1"/>
+    <col min="2" max="5" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,11 +1123,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,62 +1152,71 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="2">
-        <f>IF(B5*100000+C5*10000+D5&gt;0,B5*100000+C5*10000+D5,"")</f>
+        <f>IF(B5*100000+C5*10000+E5&gt;0,B5*100000+C5*10000+E5,"")</f>
         <v>10010001310001</v>
       </c>
       <c r="B5" s="1">
@@ -1186,22 +1225,25 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A37" si="0">IF(B6*100000+C6*10000+D6&gt;0,B6*100000+C6*10000+D6,"")</f>
+        <f t="shared" ref="A6:A37" si="0">IF(B6*100000+C6*10000+E6&gt;0,B6*100000+C6*10000+E6,"")</f>
         <v>10010001310002</v>
       </c>
       <c r="B6" s="1">
@@ -1210,17 +1252,20 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1700180056</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>10010001310003</v>
@@ -1231,17 +1276,20 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1700180056</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>10010001310004</v>
@@ -1252,17 +1300,20 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1700180056</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>10010001310005</v>
@@ -1273,44 +1324,140 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>10010001310006</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1700180350</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10010001310007</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10010001310008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1700180868</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <f>IF(B13*100000+C13*10000+E13&gt;0,B13*100000+C13*10000+E13,"")</f>
+        <v>10010001320001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <f>IF(B14*100000+C14*10000+E14&gt;0,B14*100000+C14*10000+E14,"")</f>
+        <v>10010001320002</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1700180868</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1478,65 +1625,65 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1729,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="55">
   <si>
     <t>@default</t>
   </si>
@@ -98,6 +98,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
     <t>directory</t>
   </si>
   <si>
@@ -143,10 +146,43 @@
     <t>史記序考證</t>
   </si>
   <si>
-    <t>目録</t>
-  </si>
-  <si>
-    <t>目録考證</t>
+    <t>目錄考證</t>
+  </si>
+  <si>
+    <t>本紀</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>世家</t>
+  </si>
+  <si>
+    <t>列傳</t>
+  </si>
+  <si>
+    <t>後序</t>
+  </si>
+  <si>
+    <t>補史記序</t>
+  </si>
+  <si>
+    <t>補撰并注</t>
+  </si>
+  <si>
+    <t>補史記</t>
+  </si>
+  <si>
+    <t>史記正義論例諡法解列國分野</t>
+  </si>
+  <si>
+    <t>正義論例</t>
+  </si>
+  <si>
+    <t>考證跋語</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -1108,9 +1144,9 @@
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="5" width="11.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.77777777777778" style="1"/>
+    <col min="8" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1127,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,10 +1189,13 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,8 +1223,11 @@
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1213,11 +1255,14 @@
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="2">
-        <f>IF(B5*100000+C5*10000+E5&gt;0,B5*100000+C5*10000+E5,"")</f>
-        <v>10010001310001</v>
+        <f>IF(B5*10000+C5*1000+E5&gt;0,B5*10000+C5*1000+E5,"")</f>
+        <v>1001000131001</v>
       </c>
       <c r="B5" s="1">
         <v>100100013</v>
@@ -1226,25 +1271,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A37" si="0">IF(B6*100000+C6*10000+E6&gt;0,B6*100000+C6*10000+E6,"")</f>
-        <v>10010001310002</v>
+        <f t="shared" ref="A6:A37" si="0">IF(B6*10000+C6*1000+E6&gt;0,B6*10000+C6*1000+E6,"")</f>
+        <v>1001000131002</v>
       </c>
       <c r="B6" s="1">
         <v>100100013</v>
@@ -1253,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1262,13 +1307,13 @@
         <v>1700180056</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310003</v>
+        <v>1001000131003</v>
       </c>
       <c r="B7" s="1">
         <v>100100013</v>
@@ -1277,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1286,13 +1331,13 @@
         <v>1700180056</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310004</v>
+        <v>1001000131004</v>
       </c>
       <c r="B8" s="1">
         <v>100100013</v>
@@ -1301,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1310,13 +1355,13 @@
         <v>1700180056</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310005</v>
+        <v>1001000131005</v>
       </c>
       <c r="B9" s="1">
         <v>100100013</v>
@@ -1325,22 +1370,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310006</v>
+        <v>1001000131006</v>
       </c>
       <c r="B10" s="1">
         <v>100100013</v>
@@ -1349,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -1358,13 +1403,13 @@
         <v>1700180350</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310007</v>
+        <v>1001000131007</v>
       </c>
       <c r="B11" s="1">
         <v>100100013</v>
@@ -1373,25 +1418,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>10010001310008</v>
+        <v>1001000131008</v>
       </c>
       <c r="B12" s="1">
         <v>100100013</v>
@@ -1400,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -1409,193 +1454,2494 @@
         <v>1700180868</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <f>IF(B13*100000+C13*10000+E13&gt;0,B13*100000+C13*10000+E13,"")</f>
-        <v>10010001320001</v>
+        <f t="shared" si="0"/>
+        <v>1001000131009</v>
       </c>
       <c r="B13" s="1">
         <v>100100013</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <f>IF(B14*100000+C14*10000+E14&gt;0,B14*100000+C14*10000+E14,"")</f>
-        <v>10010001320002</v>
+        <f t="shared" si="0"/>
+        <v>1001000131010</v>
       </c>
       <c r="B14" s="1">
         <v>100100013</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>1700180868</v>
       </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="str">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="str">
+        <v>1001000132001</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="str">
+        <v>1001000132002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="str">
+        <v>1001000132003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="str">
+        <v>1001000132004</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="str">
+        <v>1001000132005</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="str">
+        <v>1001000132006</v>
+      </c>
+      <c r="B20" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="str">
+        <v>1001000132007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="str">
+        <v>1001000132008</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="str">
+        <v>1001000132009</v>
+      </c>
+      <c r="B23" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="str">
+        <v>1001000132010</v>
+      </c>
+      <c r="B24" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="str">
+        <v>1001000132011</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="str">
+        <v>1001000132012</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="str">
+        <v>1001000133001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="str">
+        <v>1001000133002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="str">
+        <v>1001000133003</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="str">
+        <v>1001000133004</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="str">
+        <v>1001000133005</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="str">
+        <v>1001000133006</v>
+      </c>
+      <c r="B32" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="str">
+        <v>1001000133007</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="str">
+        <v>1001000133008</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="str">
+        <v>1001000133009</v>
+      </c>
+      <c r="B35" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="str">
+        <v>1001000133010</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1001000134001</v>
+      </c>
+      <c r="B37" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <f t="shared" ref="A38:A69" si="1">IF(B38*10000+C38*1000+E38&gt;0,B38*10000+C38*1000+E38,"")</f>
+        <v>1001000134002</v>
+      </c>
+      <c r="B38" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134003</v>
+      </c>
+      <c r="B39" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134004</v>
+      </c>
+      <c r="B40" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134005</v>
+      </c>
+      <c r="B41" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134006</v>
+      </c>
+      <c r="B42" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134007</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000134008</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135001</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135002</v>
+      </c>
+      <c r="B46" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135003</v>
+      </c>
+      <c r="B47" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135004</v>
+      </c>
+      <c r="B48" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135005</v>
+      </c>
+      <c r="B49" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135006</v>
+      </c>
+      <c r="B50" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135007</v>
+      </c>
+      <c r="B51" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135008</v>
+      </c>
+      <c r="B52" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135009</v>
+      </c>
+      <c r="B53" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135010</v>
+      </c>
+      <c r="B54" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135011</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135012</v>
+      </c>
+      <c r="B56" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135013</v>
+      </c>
+      <c r="B57" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135014</v>
+      </c>
+      <c r="B58" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135015</v>
+      </c>
+      <c r="B59" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135016</v>
+      </c>
+      <c r="B60" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135017</v>
+      </c>
+      <c r="B61" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135018</v>
+      </c>
+      <c r="B62" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135019</v>
+      </c>
+      <c r="B63" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135020</v>
+      </c>
+      <c r="B64" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135021</v>
+      </c>
+      <c r="B65" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135022</v>
+      </c>
+      <c r="B66" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135023</v>
+      </c>
+      <c r="B67" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135024</v>
+      </c>
+      <c r="B68" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <f t="shared" si="1"/>
+        <v>1001000135025</v>
+      </c>
+      <c r="B69" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <f t="shared" ref="A70:A101" si="2">IF(B70*10000+C70*1000+E70&gt;0,B70*10000+C70*1000+E70,"")</f>
+        <v>1001000135026</v>
+      </c>
+      <c r="B70" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000135027</v>
+      </c>
+      <c r="B71" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000135028</v>
+      </c>
+      <c r="B72" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000135029</v>
+      </c>
+      <c r="B73" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000135030</v>
+      </c>
+      <c r="B74" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136001</v>
+      </c>
+      <c r="B75" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136002</v>
+      </c>
+      <c r="B76" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136003</v>
+      </c>
+      <c r="B77" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136004</v>
+      </c>
+      <c r="B78" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136005</v>
+      </c>
+      <c r="B79" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136006</v>
+      </c>
+      <c r="B80" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136007</v>
+      </c>
+      <c r="B81" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136008</v>
+      </c>
+      <c r="B82" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136009</v>
+      </c>
+      <c r="B83" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136010</v>
+      </c>
+      <c r="B84" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136011</v>
+      </c>
+      <c r="B85" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136012</v>
+      </c>
+      <c r="B86" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136013</v>
+      </c>
+      <c r="B87" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136014</v>
+      </c>
+      <c r="B88" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136015</v>
+      </c>
+      <c r="B89" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136016</v>
+      </c>
+      <c r="B90" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136017</v>
+      </c>
+      <c r="B91" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136018</v>
+      </c>
+      <c r="B92" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C92" s="1">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136019</v>
+      </c>
+      <c r="B93" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136020</v>
+      </c>
+      <c r="B94" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C94" s="1">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136021</v>
+      </c>
+      <c r="B95" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C95" s="1">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136022</v>
+      </c>
+      <c r="B96" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C96" s="1">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136023</v>
+      </c>
+      <c r="B97" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136024</v>
+      </c>
+      <c r="B98" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136025</v>
+      </c>
+      <c r="B99" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C99" s="1">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136026</v>
+      </c>
+      <c r="B100" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C100" s="1">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <f t="shared" si="2"/>
+        <v>1001000136027</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <f t="shared" ref="A102:A148" si="3">IF(B102*10000+C102*1000+E102&gt;0,B102*10000+C102*1000+E102,"")</f>
+        <v>1001000136028</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C102" s="1">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136029</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136030</v>
+      </c>
+      <c r="B104" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136031</v>
+      </c>
+      <c r="B105" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C105" s="1">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136032</v>
+      </c>
+      <c r="B106" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136033</v>
+      </c>
+      <c r="B107" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136034</v>
+      </c>
+      <c r="B108" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136035</v>
+      </c>
+      <c r="B109" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136036</v>
+      </c>
+      <c r="B110" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136037</v>
+      </c>
+      <c r="B111" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136038</v>
+      </c>
+      <c r="B112" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C112" s="1">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136039</v>
+      </c>
+      <c r="B113" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136040</v>
+      </c>
+      <c r="B114" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136041</v>
+      </c>
+      <c r="B115" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136042</v>
+      </c>
+      <c r="B116" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C116" s="1">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136043</v>
+      </c>
+      <c r="B117" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C117" s="1">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136044</v>
+      </c>
+      <c r="B118" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C118" s="1">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136045</v>
+      </c>
+      <c r="B119" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C119" s="1">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136046</v>
+      </c>
+      <c r="B120" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136047</v>
+      </c>
+      <c r="B121" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136048</v>
+      </c>
+      <c r="B122" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C122" s="1">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E122" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136049</v>
+      </c>
+      <c r="B123" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136050</v>
+      </c>
+      <c r="B124" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C124" s="1">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136051</v>
+      </c>
+      <c r="B125" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C125" s="1">
+        <v>6</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136052</v>
+      </c>
+      <c r="B126" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C126" s="1">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136053</v>
+      </c>
+      <c r="B127" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C127" s="1">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136054</v>
+      </c>
+      <c r="B128" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C128" s="1">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136055</v>
+      </c>
+      <c r="B129" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E129" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136056</v>
+      </c>
+      <c r="B130" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C130" s="1">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136057</v>
+      </c>
+      <c r="B131" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C131" s="1">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136058</v>
+      </c>
+      <c r="B132" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C132" s="1">
+        <v>6</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136059</v>
+      </c>
+      <c r="B133" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E133" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136060</v>
+      </c>
+      <c r="B134" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C134" s="1">
+        <v>6</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136061</v>
+      </c>
+      <c r="B135" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136062</v>
+      </c>
+      <c r="B136" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C136" s="1">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E136" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136063</v>
+      </c>
+      <c r="B137" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C137" s="1">
+        <v>6</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E137" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136064</v>
+      </c>
+      <c r="B138" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C138" s="1">
+        <v>6</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E138" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136065</v>
+      </c>
+      <c r="B139" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C139" s="1">
+        <v>6</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136066</v>
+      </c>
+      <c r="B140" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C140" s="1">
+        <v>6</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E140" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136067</v>
+      </c>
+      <c r="B141" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136068</v>
+      </c>
+      <c r="B142" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136069</v>
+      </c>
+      <c r="B143" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C143" s="1">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E143" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000136070</v>
+      </c>
+      <c r="B144" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C144" s="1">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000137001</v>
+      </c>
+      <c r="B145" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C145" s="1">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1200180001</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000137002</v>
+      </c>
+      <c r="B146" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C146" s="1">
+        <v>7</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1200180001</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000137003</v>
+      </c>
+      <c r="B147" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C147" s="1">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1200180002</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="2">
+        <f t="shared" si="3"/>
+        <v>1001000137004</v>
+      </c>
+      <c r="B148" s="1">
+        <v>100100013</v>
+      </c>
+      <c r="C148" s="1">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1700180868</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="186" ht="16" customHeight="1"/>
@@ -1683,7 +4029,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
   <si>
     <t>@default</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Chapter</t>
+    <t>Character</t>
   </si>
   <si>
     <t>Id</t>
@@ -44,6 +44,9 @@
     <t>卷</t>
   </si>
   <si>
+    <t>章節卷</t>
+  </si>
+  <si>
     <t>其他作者</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>標題</t>
   </si>
   <si>
+    <t>標題（簡稱）</t>
+  </si>
+  <si>
     <t>目錄</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>chapterVolume</t>
   </si>
   <si>
     <t>otherAuthor</t>
@@ -1130,34 +1139,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.77777777777778" style="1"/>
+    <col min="2" max="6" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1183,79 +1193,88 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="2">
-        <f>IF(B5*10000+C5*1000+E5&gt;0,B5*10000+C5*1000+E5,"")</f>
+        <f>IF(B5*10000+C5*1000+F5&gt;0,B5*10000+C5*1000+F5,"")</f>
         <v>1001000131001</v>
       </c>
       <c r="B5" s="1">
@@ -1265,24 +1284,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A37" si="0">IF(B6*10000+C6*1000+E6&gt;0,B6*10000+C6*1000+E6,"")</f>
+        <f t="shared" ref="A6:A37" si="0">IF(B6*10000+C6*1000+F6&gt;0,B6*10000+C6*1000+F6,"")</f>
         <v>1001000131002</v>
       </c>
       <c r="B6" s="1">
@@ -1292,19 +1314,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>1001000131003</v>
@@ -1316,19 +1341,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>1001000131004</v>
@@ -1340,19 +1368,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>1001000131005</v>
@@ -1364,19 +1395,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>1001000131006</v>
@@ -1388,19 +1422,22 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>1700180350</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>1001000131007</v>
@@ -1412,22 +1449,25 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>1001000131008</v>
@@ -1439,19 +1479,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>1001000131009</v>
@@ -1463,16 +1506,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>9</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>1001000131010</v>
@@ -1484,19 +1530,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>1001000132001</v>
@@ -1508,13 +1557,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>1001000132002</v>
@@ -1526,13 +1578,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>1001000132003</v>
@@ -1544,13 +1599,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>1001000132004</v>
@@ -1562,13 +1620,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>1001000132005</v>
@@ -1580,13 +1641,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>1001000132006</v>
@@ -1598,13 +1662,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>1001000132007</v>
@@ -1616,13 +1683,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>1001000132008</v>
@@ -1634,13 +1704,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>1001000132009</v>
@@ -1652,13 +1725,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>1001000132010</v>
@@ -1670,13 +1746,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>1001000132011</v>
@@ -1688,13 +1767,16 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>1001000132012</v>
@@ -1706,13 +1788,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>1001000133001</v>
@@ -1724,13 +1809,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>1001000133002</v>
@@ -1742,13 +1830,16 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>1001000133003</v>
@@ -1760,13 +1851,16 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>1001000133004</v>
@@ -1778,13 +1872,16 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>1001000133005</v>
@@ -1796,13 +1893,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>1001000133006</v>
@@ -1814,13 +1914,16 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>1001000133007</v>
@@ -1832,13 +1935,16 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>1001000133008</v>
@@ -1850,13 +1956,16 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>1001000133009</v>
@@ -1868,13 +1977,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>1001000133010</v>
@@ -1886,13 +1998,16 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>1001000134001</v>
@@ -1904,15 +2019,18 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <f t="shared" ref="A38:A69" si="1">IF(B38*10000+C38*1000+E38&gt;0,B38*10000+C38*1000+E38,"")</f>
+        <f t="shared" ref="A38:A69" si="1">IF(B38*10000+C38*1000+F38&gt;0,B38*10000+C38*1000+F38,"")</f>
         <v>1001000134002</v>
       </c>
       <c r="B38" s="1">
@@ -1922,13 +2040,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>1001000134003</v>
@@ -1940,13 +2061,16 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>1001000134004</v>
@@ -1958,13 +2082,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>1001000134005</v>
@@ -1976,13 +2103,16 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>1001000134006</v>
@@ -1994,13 +2124,16 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>1001000134007</v>
@@ -2012,13 +2145,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>1001000134008</v>
@@ -2030,13 +2166,16 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>1001000135001</v>
@@ -2048,13 +2187,16 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>1001000135002</v>
@@ -2066,13 +2208,16 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>1001000135003</v>
@@ -2084,13 +2229,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>1001000135004</v>
@@ -2102,13 +2250,16 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>1001000135005</v>
@@ -2120,13 +2271,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>1001000135006</v>
@@ -2138,13 +2292,16 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>1001000135007</v>
@@ -2156,13 +2313,16 @@
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>1001000135008</v>
@@ -2174,13 +2334,16 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>1001000135009</v>
@@ -2192,13 +2355,16 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>1001000135010</v>
@@ -2210,13 +2376,16 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>1001000135011</v>
@@ -2228,13 +2397,16 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>1001000135012</v>
@@ -2246,13 +2418,16 @@
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>1001000135013</v>
@@ -2264,13 +2439,16 @@
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
+        <v>43</v>
+      </c>
+      <c r="F57" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>1001000135014</v>
@@ -2282,13 +2460,16 @@
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
+        <v>44</v>
+      </c>
+      <c r="F58" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>1001000135015</v>
@@ -2300,13 +2481,16 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1">
         <v>45</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>1001000135016</v>
@@ -2318,13 +2502,16 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E60" s="1">
+        <v>46</v>
+      </c>
+      <c r="F60" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>1001000135017</v>
@@ -2336,13 +2523,16 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E61" s="1">
+        <v>47</v>
+      </c>
+      <c r="F61" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>1001000135018</v>
@@ -2354,13 +2544,16 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1">
+        <v>48</v>
+      </c>
+      <c r="F62" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>1001000135019</v>
@@ -2372,13 +2565,16 @@
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E63" s="1">
+        <v>49</v>
+      </c>
+      <c r="F63" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>1001000135020</v>
@@ -2390,13 +2586,16 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1">
+        <v>50</v>
+      </c>
+      <c r="F64" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>1001000135021</v>
@@ -2408,13 +2607,16 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1">
+        <v>51</v>
+      </c>
+      <c r="F65" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>1001000135022</v>
@@ -2426,13 +2628,16 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1">
+        <v>52</v>
+      </c>
+      <c r="F66" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>1001000135023</v>
@@ -2444,13 +2649,16 @@
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E67" s="1">
+        <v>53</v>
+      </c>
+      <c r="F67" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <f t="shared" si="1"/>
         <v>1001000135024</v>
@@ -2462,13 +2670,16 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E68" s="1">
+        <v>54</v>
+      </c>
+      <c r="F68" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>1001000135025</v>
@@ -2480,15 +2691,18 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <f t="shared" ref="A70:A101" si="2">IF(B70*10000+C70*1000+E70&gt;0,B70*10000+C70*1000+E70,"")</f>
+        <f t="shared" ref="A70:A101" si="2">IF(B70*10000+C70*1000+F70&gt;0,B70*10000+C70*1000+F70,"")</f>
         <v>1001000135026</v>
       </c>
       <c r="B70" s="1">
@@ -2498,13 +2712,16 @@
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E70" s="1">
+        <v>56</v>
+      </c>
+      <c r="F70" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>1001000135027</v>
@@ -2516,13 +2733,16 @@
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E71" s="1">
+        <v>57</v>
+      </c>
+      <c r="F71" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>1001000135028</v>
@@ -2534,13 +2754,16 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>1001000135029</v>
@@ -2552,13 +2775,16 @@
         <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E73" s="1">
+        <v>59</v>
+      </c>
+      <c r="F73" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>1001000135030</v>
@@ -2570,13 +2796,16 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E74" s="1">
+        <v>60</v>
+      </c>
+      <c r="F74" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>1001000136001</v>
@@ -2588,13 +2817,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E75" s="1">
+        <v>61</v>
+      </c>
+      <c r="F75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <f t="shared" si="2"/>
         <v>1001000136002</v>
@@ -2606,13 +2838,16 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1">
+        <v>62</v>
+      </c>
+      <c r="F76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>1001000136003</v>
@@ -2624,13 +2859,16 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E77" s="1">
+        <v>63</v>
+      </c>
+      <c r="F77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>1001000136004</v>
@@ -2642,13 +2880,16 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1">
+        <v>64</v>
+      </c>
+      <c r="F78" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>1001000136005</v>
@@ -2660,13 +2901,16 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E79" s="1">
+        <v>65</v>
+      </c>
+      <c r="F79" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>1001000136006</v>
@@ -2678,13 +2922,16 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <f t="shared" si="2"/>
         <v>1001000136007</v>
@@ -2696,13 +2943,16 @@
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E81" s="1">
+        <v>67</v>
+      </c>
+      <c r="F81" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>1001000136008</v>
@@ -2714,13 +2964,16 @@
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E82" s="1">
+        <v>68</v>
+      </c>
+      <c r="F82" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <f t="shared" si="2"/>
         <v>1001000136009</v>
@@ -2732,13 +2985,16 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E83" s="1">
+        <v>69</v>
+      </c>
+      <c r="F83" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <f t="shared" si="2"/>
         <v>1001000136010</v>
@@ -2750,13 +3006,16 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1">
+        <v>70</v>
+      </c>
+      <c r="F84" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <f t="shared" si="2"/>
         <v>1001000136011</v>
@@ -2768,13 +3027,16 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E85" s="1">
+        <v>71</v>
+      </c>
+      <c r="F85" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <f t="shared" si="2"/>
         <v>1001000136012</v>
@@ -2786,13 +3048,16 @@
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E86" s="1">
+        <v>72</v>
+      </c>
+      <c r="F86" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <f t="shared" si="2"/>
         <v>1001000136013</v>
@@ -2804,13 +3069,16 @@
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E87" s="1">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <f t="shared" si="2"/>
         <v>1001000136014</v>
@@ -2822,13 +3090,16 @@
         <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E88" s="1">
+        <v>74</v>
+      </c>
+      <c r="F88" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <f t="shared" si="2"/>
         <v>1001000136015</v>
@@ -2840,13 +3111,16 @@
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1">
+        <v>75</v>
+      </c>
+      <c r="F89" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <f t="shared" si="2"/>
         <v>1001000136016</v>
@@ -2858,13 +3132,16 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E90" s="1">
+        <v>76</v>
+      </c>
+      <c r="F90" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <f t="shared" si="2"/>
         <v>1001000136017</v>
@@ -2876,13 +3153,16 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E91" s="1">
+        <v>77</v>
+      </c>
+      <c r="F91" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <f t="shared" si="2"/>
         <v>1001000136018</v>
@@ -2894,13 +3174,16 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1">
+        <v>78</v>
+      </c>
+      <c r="F92" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <f t="shared" si="2"/>
         <v>1001000136019</v>
@@ -2912,13 +3195,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E93" s="1">
+        <v>79</v>
+      </c>
+      <c r="F93" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <f t="shared" si="2"/>
         <v>1001000136020</v>
@@ -2930,13 +3216,16 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1">
+        <v>80</v>
+      </c>
+      <c r="F94" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <f t="shared" si="2"/>
         <v>1001000136021</v>
@@ -2948,13 +3237,16 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E95" s="1">
+        <v>81</v>
+      </c>
+      <c r="F95" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <f t="shared" si="2"/>
         <v>1001000136022</v>
@@ -2966,13 +3258,16 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E96" s="1">
+        <v>82</v>
+      </c>
+      <c r="F96" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <f t="shared" si="2"/>
         <v>1001000136023</v>
@@ -2984,13 +3279,16 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E97" s="1">
+        <v>83</v>
+      </c>
+      <c r="F97" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <f t="shared" si="2"/>
         <v>1001000136024</v>
@@ -3002,13 +3300,16 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1">
+        <v>84</v>
+      </c>
+      <c r="F98" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <f t="shared" si="2"/>
         <v>1001000136025</v>
@@ -3020,13 +3321,16 @@
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E99" s="1">
+        <v>85</v>
+      </c>
+      <c r="F99" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <f t="shared" si="2"/>
         <v>1001000136026</v>
@@ -3038,13 +3342,16 @@
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1">
+        <v>86</v>
+      </c>
+      <c r="F100" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <f t="shared" si="2"/>
         <v>1001000136027</v>
@@ -3056,15 +3363,18 @@
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E101" s="1">
+        <v>87</v>
+      </c>
+      <c r="F101" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <f t="shared" ref="A102:A148" si="3">IF(B102*10000+C102*1000+E102&gt;0,B102*10000+C102*1000+E102,"")</f>
+        <f t="shared" ref="A102:A148" si="3">IF(B102*10000+C102*1000+F102&gt;0,B102*10000+C102*1000+F102,"")</f>
         <v>1001000136028</v>
       </c>
       <c r="B102" s="1">
@@ -3074,13 +3384,16 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E102" s="1">
+        <v>88</v>
+      </c>
+      <c r="F102" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>1001000136029</v>
@@ -3092,13 +3405,16 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E103" s="1">
+        <v>89</v>
+      </c>
+      <c r="F103" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>1001000136030</v>
@@ -3110,13 +3426,16 @@
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E104" s="1">
+        <v>90</v>
+      </c>
+      <c r="F104" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>1001000136031</v>
@@ -3128,13 +3447,16 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E105" s="1">
+        <v>91</v>
+      </c>
+      <c r="F105" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <f t="shared" si="3"/>
         <v>1001000136032</v>
@@ -3146,13 +3468,16 @@
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E106" s="1">
+        <v>92</v>
+      </c>
+      <c r="F106" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <f t="shared" si="3"/>
         <v>1001000136033</v>
@@ -3164,13 +3489,16 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E107" s="1">
+        <v>93</v>
+      </c>
+      <c r="F107" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <f t="shared" si="3"/>
         <v>1001000136034</v>
@@ -3182,13 +3510,16 @@
         <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E108" s="1">
+        <v>94</v>
+      </c>
+      <c r="F108" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <f t="shared" si="3"/>
         <v>1001000136035</v>
@@ -3200,13 +3531,16 @@
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E109" s="1">
+        <v>95</v>
+      </c>
+      <c r="F109" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <f t="shared" si="3"/>
         <v>1001000136036</v>
@@ -3218,13 +3552,16 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E110" s="1">
+        <v>96</v>
+      </c>
+      <c r="F110" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <f t="shared" si="3"/>
         <v>1001000136037</v>
@@ -3236,13 +3573,16 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E111" s="1">
+        <v>97</v>
+      </c>
+      <c r="F111" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <f t="shared" si="3"/>
         <v>1001000136038</v>
@@ -3254,13 +3594,16 @@
         <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E112" s="1">
+        <v>98</v>
+      </c>
+      <c r="F112" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <f t="shared" si="3"/>
         <v>1001000136039</v>
@@ -3272,13 +3615,16 @@
         <v>6</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E113" s="1">
+        <v>99</v>
+      </c>
+      <c r="F113" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <f t="shared" si="3"/>
         <v>1001000136040</v>
@@ -3290,13 +3636,16 @@
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E114" s="1">
+        <v>100</v>
+      </c>
+      <c r="F114" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <f t="shared" si="3"/>
         <v>1001000136041</v>
@@ -3308,13 +3657,16 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E115" s="1">
+        <v>101</v>
+      </c>
+      <c r="F115" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <f t="shared" si="3"/>
         <v>1001000136042</v>
@@ -3326,13 +3678,16 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E116" s="1">
+        <v>102</v>
+      </c>
+      <c r="F116" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <f t="shared" si="3"/>
         <v>1001000136043</v>
@@ -3344,13 +3699,16 @@
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E117" s="1">
+        <v>103</v>
+      </c>
+      <c r="F117" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <f t="shared" si="3"/>
         <v>1001000136044</v>
@@ -3362,13 +3720,16 @@
         <v>6</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1">
+        <v>104</v>
+      </c>
+      <c r="F118" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <f t="shared" si="3"/>
         <v>1001000136045</v>
@@ -3380,13 +3741,16 @@
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E119" s="1">
+        <v>105</v>
+      </c>
+      <c r="F119" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <f t="shared" si="3"/>
         <v>1001000136046</v>
@@ -3398,13 +3762,16 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="1">
+        <v>106</v>
+      </c>
+      <c r="F120" s="1">
         <v>46</v>
       </c>
-      <c r="E120" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <f t="shared" si="3"/>
         <v>1001000136047</v>
@@ -3416,13 +3783,16 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E121" s="1">
+        <v>107</v>
+      </c>
+      <c r="F121" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <f t="shared" si="3"/>
         <v>1001000136048</v>
@@ -3434,13 +3804,16 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E122" s="1">
+        <v>108</v>
+      </c>
+      <c r="F122" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <f t="shared" si="3"/>
         <v>1001000136049</v>
@@ -3452,13 +3825,16 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E123" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F123" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <f t="shared" si="3"/>
         <v>1001000136050</v>
@@ -3470,13 +3846,16 @@
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E124" s="1">
+        <v>110</v>
+      </c>
+      <c r="F124" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <f t="shared" si="3"/>
         <v>1001000136051</v>
@@ -3488,13 +3867,16 @@
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E125" s="1">
+        <v>111</v>
+      </c>
+      <c r="F125" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <f t="shared" si="3"/>
         <v>1001000136052</v>
@@ -3506,13 +3888,16 @@
         <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E126" s="1">
+        <v>112</v>
+      </c>
+      <c r="F126" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <f t="shared" si="3"/>
         <v>1001000136053</v>
@@ -3524,13 +3909,16 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E127" s="1">
+        <v>113</v>
+      </c>
+      <c r="F127" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <f t="shared" si="3"/>
         <v>1001000136054</v>
@@ -3542,13 +3930,16 @@
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E128" s="1">
+        <v>114</v>
+      </c>
+      <c r="F128" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <f t="shared" si="3"/>
         <v>1001000136055</v>
@@ -3560,13 +3951,16 @@
         <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E129" s="1">
+        <v>115</v>
+      </c>
+      <c r="F129" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <f t="shared" si="3"/>
         <v>1001000136056</v>
@@ -3578,13 +3972,16 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E130" s="1">
+        <v>116</v>
+      </c>
+      <c r="F130" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <f t="shared" si="3"/>
         <v>1001000136057</v>
@@ -3596,13 +3993,16 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E131" s="1">
+        <v>117</v>
+      </c>
+      <c r="F131" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <f t="shared" si="3"/>
         <v>1001000136058</v>
@@ -3614,13 +4014,16 @@
         <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E132" s="1">
+        <v>118</v>
+      </c>
+      <c r="F132" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <f t="shared" si="3"/>
         <v>1001000136059</v>
@@ -3632,13 +4035,16 @@
         <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E133" s="1">
+        <v>119</v>
+      </c>
+      <c r="F133" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <f t="shared" si="3"/>
         <v>1001000136060</v>
@@ -3650,13 +4056,16 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E134" s="1">
+        <v>120</v>
+      </c>
+      <c r="F134" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <f t="shared" si="3"/>
         <v>1001000136061</v>
@@ -3668,13 +4077,16 @@
         <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E135" s="1">
+        <v>121</v>
+      </c>
+      <c r="F135" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <f t="shared" si="3"/>
         <v>1001000136062</v>
@@ -3686,13 +4098,16 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E136" s="1">
+        <v>122</v>
+      </c>
+      <c r="F136" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <f t="shared" si="3"/>
         <v>1001000136063</v>
@@ -3704,13 +4119,16 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E137" s="1">
+        <v>123</v>
+      </c>
+      <c r="F137" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <f t="shared" si="3"/>
         <v>1001000136064</v>
@@ -3722,13 +4140,16 @@
         <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E138" s="1">
+        <v>124</v>
+      </c>
+      <c r="F138" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <f t="shared" si="3"/>
         <v>1001000136065</v>
@@ -3740,13 +4161,16 @@
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E139" s="1">
+        <v>125</v>
+      </c>
+      <c r="F139" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <f t="shared" si="3"/>
         <v>1001000136066</v>
@@ -3758,13 +4182,16 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E140" s="1">
+        <v>126</v>
+      </c>
+      <c r="F140" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <f t="shared" si="3"/>
         <v>1001000136067</v>
@@ -3776,13 +4203,16 @@
         <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E141" s="1">
+        <v>127</v>
+      </c>
+      <c r="F141" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <f t="shared" si="3"/>
         <v>1001000136068</v>
@@ -3794,13 +4224,16 @@
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E142" s="1">
+        <v>128</v>
+      </c>
+      <c r="F142" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <f t="shared" si="3"/>
         <v>1001000136069</v>
@@ -3812,13 +4245,16 @@
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E143" s="1">
+        <v>129</v>
+      </c>
+      <c r="F143" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <f t="shared" si="3"/>
         <v>1001000136070</v>
@@ -3830,13 +4266,16 @@
         <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E144" s="1">
+        <v>130</v>
+      </c>
+      <c r="F144" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <f t="shared" si="3"/>
         <v>1001000137001</v>
@@ -3848,19 +4287,22 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="1">
+      <c r="G145" s="1">
         <v>1200180001</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <f t="shared" si="3"/>
         <v>1001000137002</v>
@@ -3872,22 +4314,25 @@
         <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
         <v>2</v>
       </c>
-      <c r="F146" s="1">
+      <c r="G146" s="1">
         <v>1200180001</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <f t="shared" si="3"/>
         <v>1001000137003</v>
@@ -3899,22 +4344,25 @@
         <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
         <v>3</v>
       </c>
-      <c r="F147" s="1">
+      <c r="G147" s="1">
         <v>1200180002</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I147" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <f t="shared" si="3"/>
         <v>1001000137004</v>
@@ -3926,16 +4374,19 @@
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
         <v>4</v>
       </c>
-      <c r="F148" s="1">
+      <c r="G148" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>53</v>
+      <c r="I148" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="186" ht="16" customHeight="1"/>
@@ -3949,15 +4400,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:8">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3965,65 +4416,92 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:8">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4035,14 +4513,111 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4051,14 +4626,111 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4067,14 +4739,111 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="22188" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="正史類" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
   <si>
     <t>@default</t>
   </si>
@@ -98,103 +98,106 @@
     <t>otherAuthor</t>
   </si>
   <si>
+    <t>authorNotes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>前言</t>
+  </si>
+  <si>
+    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
+  </si>
+  <si>
+    <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
+  </si>
+  <si>
+    <t>校勘</t>
+  </si>
+  <si>
+    <t>御製序</t>
+  </si>
+  <si>
+    <t>御製詩</t>
+  </si>
+  <si>
+    <t>御製文</t>
+  </si>
+  <si>
+    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
+  </si>
+  <si>
+    <t>進表</t>
+  </si>
+  <si>
+    <t>職名</t>
+  </si>
+  <si>
+    <t>1000180001&amp;1200180001&amp;1200180002</t>
+  </si>
+  <si>
+    <t>集解&amp;索隠&amp;正義</t>
+  </si>
+  <si>
+    <t>史記序</t>
+  </si>
+  <si>
+    <t>史記序考證</t>
+  </si>
+  <si>
+    <t>目錄考證</t>
+  </si>
+  <si>
+    <t>本紀</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>世家</t>
+  </si>
+  <si>
+    <t>列傳</t>
+  </si>
+  <si>
+    <t>後序</t>
+  </si>
+  <si>
+    <t>補史記序</t>
+  </si>
+  <si>
+    <t>補撰并注</t>
+  </si>
+  <si>
+    <t>補史記</t>
+  </si>
+  <si>
+    <t>史記正義論例諡法解列國分野</t>
+  </si>
+  <si>
+    <t>正義論例</t>
+  </si>
+  <si>
+    <t>考證跋語</t>
+  </si>
+  <si>
     <t>authorDescribe</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>abbreviation</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>前言</t>
-  </si>
-  <si>
-    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
-  </si>
-  <si>
-    <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
-  </si>
-  <si>
-    <t>校勘</t>
-  </si>
-  <si>
-    <t>御製序</t>
-  </si>
-  <si>
-    <t>御製詩</t>
-  </si>
-  <si>
-    <t>御製文</t>
-  </si>
-  <si>
-    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
-  </si>
-  <si>
-    <t>進表</t>
-  </si>
-  <si>
-    <t>職名</t>
-  </si>
-  <si>
-    <t>1000180001&amp;1200180001&amp;1200180002</t>
-  </si>
-  <si>
-    <t>集解&amp;索隠&amp;正義</t>
-  </si>
-  <si>
-    <t>史記序</t>
-  </si>
-  <si>
-    <t>史記序考證</t>
-  </si>
-  <si>
-    <t>目錄考證</t>
-  </si>
-  <si>
-    <t>本紀</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>世家</t>
-  </si>
-  <si>
-    <t>列傳</t>
-  </si>
-  <si>
-    <t>後序</t>
-  </si>
-  <si>
-    <t>補史記序</t>
-  </si>
-  <si>
-    <t>補撰并注</t>
-  </si>
-  <si>
-    <t>補史記</t>
-  </si>
-  <si>
-    <t>史記正義論例諡法解列國分野</t>
-  </si>
-  <si>
-    <t>正義論例</t>
-  </si>
-  <si>
-    <t>考證跋語</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -216,34 +219,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -257,14 +232,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +271,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,7 +336,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,55 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,31 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +432,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,7 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,21 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,148 +668,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,52 +826,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1142,7 +1145,7 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -4492,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
@@ -4605,7 +4608,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
@@ -4718,7 +4721,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
@@ -4831,7 +4834,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
